--- a/Resources/Datasets/cleaned_data/AR_test_dataset.xlsx
+++ b/Resources/Datasets/cleaned_data/AR_test_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\Gas_Price_analysis\Resources\Datasets\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B694A8C-932F-42BD-A48A-08D9010A5728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC40BCE-9A7F-4430-9995-E2620BF35B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="4"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual_us_gas_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,19 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1048,11 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2006,11 +2018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D23"/>
+      <selection activeCell="B5" sqref="B5:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3316,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3817,10 +3829,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -4998,14 +5010,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="9" max="9" width="11.578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6">
@@ -5369,7 +5384,7 @@
         <v>5.1613025940758144</v>
       </c>
       <c r="I18" s="5">
-        <v>5.5521704632574537E-5</v>
+        <v>5.5521704632574503E-5</v>
       </c>
       <c r="J18" s="2">
         <v>0.4356327854321666</v>
@@ -5429,6 +5444,11 @@
       <c r="B23">
         <f>F17+F18*B21</f>
         <v>3.3718644433125098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
